--- a/Examples/Dictionary/Calc/Exp102_Excel_2output with extras.xlsx
+++ b/Examples/Dictionary/Calc/Exp102_Excel_2output with extras.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="460" windowWidth="16540" windowHeight="15740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pairwiseM1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pairwiseM2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
